--- a/tiles.xlsx
+++ b/tiles.xlsx
@@ -24,12 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>CRASH</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Tested layout</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>5x5</t>
+  </si>
+  <si>
+    <t>7x7</t>
+  </si>
+  <si>
+    <t>9x9</t>
+  </si>
+  <si>
+    <t>11x11</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -344,11 +362,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -406,6 +464,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,14 +773,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:R19"/>
+  <dimension ref="B7:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+    </row>
     <row r="9" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -708,6 +809,10 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
       <c r="R9" s="32" t="s">
         <v>0</v>
       </c>
@@ -724,6 +829,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="11"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
       <c r="Q10" s="31" t="s">
         <v>0</v>
       </c>
@@ -741,6 +849,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="11"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="33" t="s">
         <v>1</v>
       </c>
@@ -759,6 +869,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="11"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="34" t="s">
         <v>1</v>
       </c>
@@ -810,11 +921,21 @@
       <c r="L14" s="12">
         <v>6</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="25"/>
+      <c r="N14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="2:18" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
@@ -846,6 +967,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="11"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="27"/>
@@ -863,6 +985,8 @@
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
       <c r="L17" s="11"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="25"/>
@@ -879,6 +1003,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="11"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="25"/>
     </row>
@@ -894,9 +1021,23 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
       <c r="R19" s="26"/>
     </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="43"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N7:R7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>